--- a/code/Tempos.xlsx
+++ b/code/Tempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcost\OneDrive\Ambiente de Trabalho\UNI\MECD\SP\SP-Project\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C27DE313-B78E-4356-B1EA-3D97A2375EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3392B33E-D1D5-40B2-B1C1-27175AFED532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9F5B9CC6-6BA1-43AE-BC09-A41D0CECE0B6}"/>
   </bookViews>
@@ -291,12 +291,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -509,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,6 +541,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,28 +556,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934F6444-BD21-4AC6-8768-5C79DD225BD5}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F44" sqref="F2:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -902,24 +899,24 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="14" t="s">
         <v>2</v>
       </c>
     </row>
@@ -933,7 +930,7 @@
       <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="11">
         <f>SUM(B3:C8)/1000</f>
         <v>3.3450000000000002</v>
       </c>
@@ -946,7 +943,7 @@
       <c r="H3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="11">
         <f>SUM(G3:H10)/1000</f>
         <v>9.4610000000000003</v>
       </c>
@@ -961,7 +958,7 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="12"/>
       <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
@@ -971,7 +968,7 @@
       <c r="H4" s="2">
         <v>24</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -983,7 +980,7 @@
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
@@ -993,7 +990,7 @@
       <c r="H5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -1005,7 +1002,7 @@
       <c r="C6" s="2">
         <v>393</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="12"/>
       <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1015,7 +1012,7 @@
       <c r="H6" s="2">
         <v>8</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -1027,7 +1024,7 @@
       <c r="C7" s="2">
         <v>2610</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="12"/>
       <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1037,7 +1034,7 @@
       <c r="H7" s="2">
         <v>664</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
@@ -1049,7 +1046,7 @@
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="13"/>
       <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1056,7 @@
       <c r="H8" s="2">
         <v>142</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
@@ -1071,11 +1068,11 @@
       <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <f>SUM(B9:C14)/1000</f>
         <v>3.4359999999999999</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="2">
@@ -1084,7 +1081,7 @@
       <c r="H9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
@@ -1096,8 +1093,8 @@
       <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="F10" s="13" t="s">
+      <c r="D10" s="12"/>
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="8">
@@ -1106,7 +1103,7 @@
       <c r="H10" s="8">
         <v>8610</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -1118,7 +1115,7 @@
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="12"/>
       <c r="F11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1125,7 @@
       <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="11">
         <f>SUM(G11:H18)/1000</f>
         <v>3.3119999999999998</v>
       </c>
@@ -1143,7 +1140,7 @@
       <c r="C12" s="2">
         <v>388</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="12"/>
       <c r="F12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1150,7 @@
       <c r="H12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -1165,7 +1162,7 @@
       <c r="C13" s="2">
         <v>2770</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="12"/>
       <c r="F13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1175,7 +1172,7 @@
       <c r="H13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
@@ -1187,7 +1184,7 @@
       <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="13"/>
       <c r="F14" s="5" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1194,7 @@
       <c r="H14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -1209,7 +1206,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
         <f>SUM(B15:C20)/1000</f>
         <v>4.6689999999999996</v>
       </c>
@@ -1222,7 +1219,7 @@
       <c r="H15" s="2">
         <v>432</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -1234,7 +1231,7 @@
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="12"/>
       <c r="F16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1244,7 +1241,7 @@
       <c r="H16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -1256,8 +1253,8 @@
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="F17" s="12" t="s">
+      <c r="D17" s="12"/>
+      <c r="F17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="2">
@@ -1266,7 +1263,7 @@
       <c r="H17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
@@ -1278,8 +1275,8 @@
       <c r="C18" s="2">
         <v>621</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="F18" s="13" t="s">
+      <c r="D18" s="12"/>
+      <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="8">
@@ -1288,7 +1285,7 @@
       <c r="H18" s="8">
         <v>2570</v>
       </c>
-      <c r="I18" s="11"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
@@ -1300,7 +1297,7 @@
       <c r="C19" s="2">
         <v>3650</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="12"/>
       <c r="F19" s="4" t="s">
         <v>3</v>
       </c>
@@ -1310,7 +1307,7 @@
       <c r="H19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="11">
         <f>SUM(G19:H26)/1000</f>
         <v>3.306</v>
       </c>
@@ -1325,7 +1322,7 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="13"/>
       <c r="F20" s="5" t="s">
         <v>4</v>
       </c>
@@ -1335,7 +1332,7 @@
       <c r="H20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
@@ -1347,7 +1344,7 @@
       <c r="C21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="11">
         <f>SUM(B21:C26)/1000</f>
         <v>3.8559999999999999</v>
       </c>
@@ -1360,7 +1357,7 @@
       <c r="H21" s="2">
         <v>1</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1372,7 +1369,7 @@
       <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="12"/>
       <c r="F22" s="5" t="s">
         <v>6</v>
       </c>
@@ -1382,7 +1379,7 @@
       <c r="H22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="10"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -1394,7 +1391,7 @@
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="12"/>
       <c r="F23" s="5" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1401,7 @@
       <c r="H23" s="2">
         <v>418</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
@@ -1416,7 +1413,7 @@
       <c r="C24" s="2">
         <v>379</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="12"/>
       <c r="F24" s="5" t="s">
         <v>8</v>
       </c>
@@ -1426,7 +1423,7 @@
       <c r="H24" s="2">
         <v>80</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -1438,8 +1435,8 @@
       <c r="C25" s="2">
         <v>2680</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="F25" s="12" t="s">
+      <c r="D25" s="12"/>
+      <c r="F25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="2">
@@ -1448,7 +1445,7 @@
       <c r="H25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
@@ -1460,8 +1457,8 @@
       <c r="C26" s="8">
         <v>0</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="F26" s="13" t="s">
+      <c r="D26" s="13"/>
+      <c r="F26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="8">
@@ -1470,7 +1467,7 @@
       <c r="H26" s="8">
         <v>2400</v>
       </c>
-      <c r="I26" s="11"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
@@ -1482,7 +1479,7 @@
       <c r="C27" s="7">
         <v>0</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="11">
         <f>SUM(B27:C32)/1000</f>
         <v>3.012</v>
       </c>
@@ -1495,7 +1492,7 @@
       <c r="H27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="11">
         <f>SUM(G27:H34)/1000</f>
         <v>4.4850000000000003</v>
       </c>
@@ -1510,7 +1507,7 @@
       <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="12"/>
       <c r="F28" s="5" t="s">
         <v>4</v>
       </c>
@@ -1520,7 +1517,7 @@
       <c r="H28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="10"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
@@ -1532,7 +1529,7 @@
       <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="12"/>
       <c r="F29" s="5" t="s">
         <v>5</v>
       </c>
@@ -1542,7 +1539,7 @@
       <c r="H29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
@@ -1554,7 +1551,7 @@
       <c r="C30" s="2">
         <v>381</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="12"/>
       <c r="F30" s="5" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +1561,7 @@
       <c r="H30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="10"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -1576,7 +1573,7 @@
       <c r="C31" s="2">
         <v>2630</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="12"/>
       <c r="F31" s="5" t="s">
         <v>7</v>
       </c>
@@ -1586,10 +1583,10 @@
       <c r="H31" s="2">
         <v>433</v>
       </c>
-      <c r="I31" s="10"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="3">
@@ -1598,7 +1595,7 @@
       <c r="C32" s="3">
         <v>0</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="12"/>
       <c r="F32" s="5" t="s">
         <v>8</v>
       </c>
@@ -1608,7 +1605,7 @@
       <c r="H32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="10"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="15" t="s">
@@ -1616,11 +1613,11 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="19">
+      <c r="D33" s="10">
         <f>AVERAGE(D3:D32)</f>
         <v>3.6635999999999997</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G33" s="2">
@@ -1629,19 +1626,19 @@
       <c r="H33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="10"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="10">
         <f>_xlfn.STDEV.P(D3:D32)</f>
         <v>0.57021701132112901</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="8">
@@ -1650,7 +1647,7 @@
       <c r="H34" s="8">
         <v>2610</v>
       </c>
-      <c r="I34" s="11"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F35" s="4" t="s">
@@ -1662,7 +1659,7 @@
       <c r="H35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="11">
         <f>SUM(G35:H42)/1000</f>
         <v>10.693</v>
       </c>
@@ -1677,7 +1674,7 @@
       <c r="H36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I36" s="10"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F37" s="5" t="s">
@@ -1689,7 +1686,7 @@
       <c r="H37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I37" s="10"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F38" s="5" t="s">
@@ -1701,7 +1698,7 @@
       <c r="H38" s="2">
         <v>25</v>
       </c>
-      <c r="I38" s="10"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F39" s="5" t="s">
@@ -1713,7 +1710,7 @@
       <c r="H39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="10"/>
+      <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F40" s="5" t="s">
@@ -1725,10 +1722,10 @@
       <c r="H40" s="2">
         <v>181</v>
       </c>
-      <c r="I40" s="10"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G41" s="2">
@@ -1737,10 +1734,10 @@
       <c r="H41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I41" s="10"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="8">
@@ -1749,7 +1746,7 @@
       <c r="H42" s="8">
         <v>9280</v>
       </c>
-      <c r="I42" s="11"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F43" s="15" t="s">
@@ -1757,34 +1754,34 @@
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
-      <c r="I43" s="19">
+      <c r="I43" s="10">
         <f>AVERAGE(I3:I42)</f>
         <v>6.2513999999999994</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="19">
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="10">
         <f>_xlfn.STDEV.P(I3:I42)</f>
         <v>3.1769471257797171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I3:I10"/>
+    <mergeCell ref="I11:I18"/>
+    <mergeCell ref="I19:I26"/>
+    <mergeCell ref="I27:I34"/>
+    <mergeCell ref="I35:I42"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="F43:H43"/>
     <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I3:I10"/>
-    <mergeCell ref="I11:I18"/>
-    <mergeCell ref="I19:I26"/>
-    <mergeCell ref="I27:I34"/>
-    <mergeCell ref="I35:I42"/>
     <mergeCell ref="D27:D32"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="D15:D20"/>

--- a/code/Tempos.xlsx
+++ b/code/Tempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcost\OneDrive\Ambiente de Trabalho\UNI\MECD\SP\SP-Project\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3392B33E-D1D5-40B2-B1C1-27175AFED532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224CB79D-D5D2-4455-92A5-86D8A649C416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9F5B9CC6-6BA1-43AE-BC09-A41D0CECE0B6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
   <si>
     <t>Key Exchange</t>
   </si>
@@ -179,21 +179,6 @@
     <t>6.71</t>
   </si>
   <si>
-    <t>7.26</t>
-  </si>
-  <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>5.14</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>38.3</t>
-  </si>
-  <si>
     <t>6.38</t>
   </si>
   <si>
@@ -245,31 +230,52 @@
     <t>16.4</t>
   </si>
   <si>
-    <t>8.03</t>
-  </si>
-  <si>
-    <t>5.66</t>
-  </si>
-  <si>
-    <t>1.53</t>
-  </si>
-  <si>
-    <t>14.4</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>25.9</t>
-  </si>
-  <si>
     <t>Média</t>
   </si>
   <si>
     <t>Desvio Padrão</t>
+  </si>
+  <si>
+    <t>8.68</t>
+  </si>
+  <si>
+    <t>7.54</t>
+  </si>
+  <si>
+    <t>7.53</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>1.38</t>
+  </si>
+  <si>
+    <t>4.26</t>
+  </si>
+  <si>
+    <t>8.32</t>
+  </si>
+  <si>
+    <t>70.7</t>
+  </si>
+  <si>
+    <t>11.8</t>
+  </si>
+  <si>
+    <t>6.66</t>
+  </si>
+  <si>
+    <t>8.29</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>73.8</t>
+  </si>
+  <si>
+    <t>18.01</t>
   </si>
 </sst>
 </file>
@@ -547,6 +553,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,9 +563,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934F6444-BD21-4AC6-8768-5C79DD225BD5}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F2:I44"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,24 +905,24 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -930,22 +936,22 @@
       <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <f>SUM(B3:C8)/1000</f>
         <v>3.3450000000000002</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="G3" s="7">
+        <v>791</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
         <f>SUM(G3:H10)/1000</f>
-        <v>9.4610000000000003</v>
+        <v>3.4129999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -958,17 +964,17 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2">
-        <v>13</v>
+      <c r="G4" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="H4" s="2">
-        <v>24</v>
-      </c>
-      <c r="I4" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -980,17 +986,17 @@
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -1002,17 +1008,17 @@
       <c r="C6" s="2">
         <v>393</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="2">
-        <v>8</v>
-      </c>
-      <c r="I6" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -1024,17 +1030,17 @@
       <c r="C7" s="2">
         <v>2610</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H7" s="2">
-        <v>664</v>
-      </c>
-      <c r="I7" s="12"/>
+        <v>396</v>
+      </c>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
@@ -1046,17 +1052,17 @@
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="2">
-        <v>142</v>
-      </c>
-      <c r="I8" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
@@ -1068,7 +1074,7 @@
       <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <f>SUM(B9:C14)/1000</f>
         <v>3.4359999999999999</v>
       </c>
@@ -1079,9 +1085,9 @@
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
@@ -1093,7 +1099,7 @@
       <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1101,9 +1107,9 @@
         <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>8610</v>
-      </c>
-      <c r="I10" s="13"/>
+        <v>2220</v>
+      </c>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -1115,7 +1121,7 @@
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="13"/>
       <c r="F11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1125,7 +1131,7 @@
       <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="12">
         <f>SUM(G11:H18)/1000</f>
         <v>3.3119999999999998</v>
       </c>
@@ -1140,7 +1146,7 @@
       <c r="C12" s="2">
         <v>388</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="F12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1148,9 +1154,9 @@
         <v>46</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -1162,7 +1168,7 @@
       <c r="C13" s="2">
         <v>2770</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
       <c r="F13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1170,9 +1176,9 @@
         <v>18</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
@@ -1184,17 +1190,17 @@
       <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="14"/>
       <c r="F14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -1206,7 +1212,7 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="12">
         <f>SUM(B15:C20)/1000</f>
         <v>4.6689999999999996</v>
       </c>
@@ -1219,7 +1225,7 @@
       <c r="H15" s="2">
         <v>432</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -1231,7 +1237,7 @@
       <c r="C16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="13"/>
       <c r="F16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1239,9 +1245,9 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -1253,7 +1259,7 @@
       <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
       <c r="F17" s="5" t="s">
         <v>9</v>
       </c>
@@ -1261,9 +1267,9 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
@@ -1275,7 +1281,7 @@
       <c r="C18" s="2">
         <v>621</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="13"/>
       <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
@@ -1285,7 +1291,7 @@
       <c r="H18" s="8">
         <v>2570</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
@@ -1297,7 +1303,7 @@
       <c r="C19" s="2">
         <v>3650</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="13"/>
       <c r="F19" s="4" t="s">
         <v>3</v>
       </c>
@@ -1307,7 +1313,7 @@
       <c r="H19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="12">
         <f>SUM(G19:H26)/1000</f>
         <v>3.306</v>
       </c>
@@ -1322,17 +1328,17 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="14"/>
       <c r="F20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
@@ -1344,7 +1350,7 @@
       <c r="C21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="12">
         <f>SUM(B21:C26)/1000</f>
         <v>3.8559999999999999</v>
       </c>
@@ -1357,7 +1363,7 @@
       <c r="H21" s="2">
         <v>1</v>
       </c>
-      <c r="I21" s="12"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -1369,17 +1375,17 @@
       <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="13"/>
       <c r="F22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="12"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -1391,7 +1397,7 @@
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
       <c r="F23" s="5" t="s">
         <v>7</v>
       </c>
@@ -1401,7 +1407,7 @@
       <c r="H23" s="2">
         <v>418</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
@@ -1413,17 +1419,17 @@
       <c r="C24" s="2">
         <v>379</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="13"/>
       <c r="F24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H24" s="2">
         <v>80</v>
       </c>
-      <c r="I24" s="12"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -1435,7 +1441,7 @@
       <c r="C25" s="2">
         <v>2680</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="13"/>
       <c r="F25" s="5" t="s">
         <v>9</v>
       </c>
@@ -1443,9 +1449,9 @@
         <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
@@ -1457,7 +1463,7 @@
       <c r="C26" s="8">
         <v>0</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="14"/>
       <c r="F26" s="6" t="s">
         <v>10</v>
       </c>
@@ -1467,7 +1473,7 @@
       <c r="H26" s="8">
         <v>2400</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
@@ -1479,7 +1485,7 @@
       <c r="C27" s="7">
         <v>0</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="12">
         <f>SUM(B27:C32)/1000</f>
         <v>3.012</v>
       </c>
@@ -1492,7 +1498,7 @@
       <c r="H27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="12">
         <f>SUM(G27:H34)/1000</f>
         <v>4.4850000000000003</v>
       </c>
@@ -1507,7 +1513,7 @@
       <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="13"/>
       <c r="F28" s="5" t="s">
         <v>4</v>
       </c>
@@ -1515,9 +1521,9 @@
         <v>5</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
@@ -1529,17 +1535,17 @@
       <c r="C29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="13"/>
       <c r="F29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
@@ -1551,7 +1557,7 @@
       <c r="C30" s="2">
         <v>381</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="13"/>
       <c r="F30" s="5" t="s">
         <v>6</v>
       </c>
@@ -1559,9 +1565,9 @@
         <v>6</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -1573,17 +1579,17 @@
       <c r="C31" s="2">
         <v>2630</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="13"/>
       <c r="F31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H31" s="2">
         <v>433</v>
       </c>
-      <c r="I31" s="12"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
@@ -1595,7 +1601,7 @@
       <c r="C32" s="3">
         <v>0</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="13"/>
       <c r="F32" s="5" t="s">
         <v>8</v>
       </c>
@@ -1603,13 +1609,13 @@
         <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="15" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1624,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" s="12"/>
+        <v>63</v>
+      </c>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="15" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -1647,21 +1653,21 @@
       <c r="H34" s="8">
         <v>2610</v>
       </c>
-      <c r="I34" s="13"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G35" s="7">
-        <v>1200</v>
+        <v>429</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I35" s="11">
+        <v>70</v>
+      </c>
+      <c r="I35" s="12">
         <f>SUM(G35:H42)/1000</f>
-        <v>10.693</v>
+        <v>3.1230000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1669,60 +1675,60 @@
         <v>4</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I36" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="2">
-        <v>7</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I37" s="12"/>
+      <c r="G37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="2">
-        <v>25</v>
-      </c>
-      <c r="I38" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I39" s="12"/>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>363</v>
+      </c>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="2">
-        <v>181</v>
-      </c>
-      <c r="I40" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F41" s="5" t="s">
@@ -1732,9 +1738,9 @@
         <v>0</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F42" s="6" t="s">
@@ -1744,39 +1750,34 @@
         <v>0</v>
       </c>
       <c r="H42" s="8">
-        <v>9280</v>
-      </c>
-      <c r="I42" s="13"/>
+        <v>2330</v>
+      </c>
+      <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F43" s="15" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="10">
         <f>AVERAGE(I3:I42)</f>
-        <v>6.2513999999999994</v>
+        <v>3.5278</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F44" s="15" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="10">
         <f>_xlfn.STDEV.P(I3:I42)</f>
-        <v>3.1769471257797171</v>
+        <v>0.4876553701129524</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I3:I10"/>
-    <mergeCell ref="I11:I18"/>
-    <mergeCell ref="I19:I26"/>
-    <mergeCell ref="I27:I34"/>
-    <mergeCell ref="I35:I42"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:C34"/>
@@ -1786,6 +1787,11 @@
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="D15:D20"/>
     <mergeCell ref="D21:D26"/>
+    <mergeCell ref="I3:I10"/>
+    <mergeCell ref="I11:I18"/>
+    <mergeCell ref="I19:I26"/>
+    <mergeCell ref="I27:I34"/>
+    <mergeCell ref="I35:I42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
